--- a/data/trans_dic/P19C10_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1034,7 +1034,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C10_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Edad-trans_dic.xlsx
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.003512092159536194</v>
+        <v>0.003510446378037413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001691415236346604</v>
+        <v>0.001676097873406443</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.03047139779772377</v>
+        <v>0.03219480281786097</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01293564298668445</v>
+        <v>0.01629619049489675</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.004131408513602659</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.004447990384611004</v>
+        <v>0.004447990384611005</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.004295958855628783</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001146867538658412</v>
+        <v>0.00112584883534503</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02068010765064168</v>
+        <v>0.02042449314000109</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01357703006885899</v>
+        <v>0.01526143436543627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01353786275021728</v>
+        <v>0.01272757708862662</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.008635078313329778</v>
+        <v>0.008635078313329776</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.002526191070710085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.005565069540898121</v>
+        <v>0.005565069540898119</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002216078023302029</v>
+        <v>0.002222422277798835</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002026558499313516</v>
+        <v>0.002046566704441795</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01988235232270096</v>
+        <v>0.02181847161605575</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009156764220765454</v>
+        <v>0.00798589432366258</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01163457099299191</v>
+        <v>0.01168257089063945</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>0.007493776609912297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.005482865439041342</v>
+        <v>0.005482865439041343</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00360214860274094</v>
+        <v>0.002961516366438037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002531800050098235</v>
+        <v>0.002807995978617012</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01314516669108455</v>
+        <v>0.01198453123481064</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01453461731565826</v>
+        <v>0.01422638010639857</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01004436383182456</v>
+        <v>0.01018705085462535</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.004422308237597206</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.002215790931709151</v>
+        <v>0.002215790931709152</v>
       </c>
     </row>
     <row r="17">
@@ -798,10 +798,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.001202351311494953</v>
+        <v>0.0010145661405983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0006093855819995833</v>
+        <v>0.0006008662929728402</v>
       </c>
     </row>
     <row r="18">
@@ -813,10 +813,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01092308904547659</v>
+        <v>0.01015422451785187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005201558703142115</v>
+        <v>0.005698015366227745</v>
       </c>
     </row>
     <row r="19">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.002854219590073653</v>
+        <v>0.002847653733599556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.001569831473826992</v>
+        <v>0.001579862695606103</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.006332684717074902</v>
+        <v>0.006324253930458667</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01631243206178744</v>
+        <v>0.01641552113341456</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.008981920337451635</v>
+        <v>0.009624907288309906</v>
       </c>
     </row>
     <row r="22">
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004339257526625598</v>
+        <v>0.004403360087857446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003274366584420012</v>
+        <v>0.003355714684477954</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01737748915948518</v>
+        <v>0.0158311638496215</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01858116470740679</v>
+        <v>0.01870945040350701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01343372596996488</v>
+        <v>0.01351661601812601</v>
       </c>
     </row>
     <row r="25">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.003165421777846134</v>
+        <v>0.003165421777846135</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.006339570021474907</v>
+        <v>0.006339570021474908</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.004803967007297226</v>
+        <v>0.004803967007297227</v>
       </c>
     </row>
     <row r="26">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00162456209404441</v>
+        <v>0.001593632443827996</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004324573744528856</v>
+        <v>0.004224772903958522</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003424482217022361</v>
+        <v>0.003490097040619472</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.006311647479383078</v>
+        <v>0.006034188647817207</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.008982351092309425</v>
+        <v>0.008925572661733721</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.006762913157927819</v>
+        <v>0.006598243935409579</v>
       </c>
     </row>
     <row r="28">
@@ -1130,7 +1130,7 @@
         <v>1205</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="7">
@@ -1142,10 +1142,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>10459</v>
+        <v>11051</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9341</v>
+        <v>11767</v>
       </c>
     </row>
     <row r="8">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1065</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9221</v>
+        <v>9107</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6552</v>
+        <v>7365</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12570</v>
+        <v>11818</v>
       </c>
     </row>
     <row r="12">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2449</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="15">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11952</v>
+        <v>13116</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5561</v>
+        <v>4850</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14059</v>
+        <v>14117</v>
       </c>
     </row>
     <row r="16">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2600</v>
+        <v>2137</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3545</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="19">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8916</v>
+        <v>8129</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10490</v>
+        <v>10268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14063</v>
+        <v>14262</v>
       </c>
     </row>
     <row r="20">
@@ -1411,10 +1411,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>716</v>
+        <v>605</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23">
@@ -1426,10 +1426,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6509</v>
+        <v>6050</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6186</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="24">
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1298</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="27">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6997</v>
+        <v>7041</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7425</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1934</v>
+        <v>1963</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2450</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="31">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5255</v>
+        <v>4787</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>8283</v>
+        <v>8340</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10051</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="32">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5520</v>
+        <v>5415</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>15679</v>
+        <v>15317</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>24051</v>
+        <v>24511</v>
       </c>
     </row>
     <row r="35">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>21445</v>
+        <v>20502</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>32565</v>
+        <v>32359</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47497</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="36">
